--- a/Results/summary.xlsx
+++ b/Results/summary.xlsx
@@ -472,7 +472,7 @@
         <v>123.8925743085091</v>
       </c>
       <c r="B4">
-        <v>1.018011830527781</v>
+        <v>1.018011830527782</v>
       </c>
       <c r="C4">
         <v>0.5615413250636538</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>936.5384321439999</v>
+        <v>936.538432144</v>
       </c>
       <c r="B7">
         <v>5.945600000000007</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>974.5441574209999</v>
+        <v>974.544157421</v>
       </c>
       <c r="B8">
         <v>6.389300000000008</v>
